--- a/updateOct11/cpu/round_robin200.xlsx
+++ b/updateOct11/cpu/round_robin200.xlsx
@@ -12,7 +12,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>AVG_QUEUE_SIZE</t>
+  </si>
+  <si>
+    <t>CPU_TIME</t>
+  </si>
+  <si>
+    <t>TURNAROUND</t>
+  </si>
+  <si>
+    <t>WAITCPU_TIME</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,520 +71,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>999.0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>600.4087986321322</v>
-      </c>
-      <c r="C1" t="n">
-        <v>4.174968975640585E10</v>
-      </c>
-      <c r="D1" t="n">
-        <v>9006408.976369314</v>
-      </c>
-      <c r="E1" t="n">
-        <v>10600.408798632167</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6048.0</v>
+        <v>999.0</v>
       </c>
       <c r="B2" t="n">
-        <v>600.231414691761</v>
+        <v>599.6472613440606</v>
       </c>
       <c r="C2" t="n">
-        <v>2.5173954739238655E10</v>
+        <v>4.174439792368561E10</v>
       </c>
       <c r="D2" t="n">
-        <v>5162092.445539141</v>
+        <v>9005707.941788252</v>
       </c>
       <c r="E2" t="n">
-        <v>10600.23141469182</v>
+        <v>10599.647261344075</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11097.0</v>
+        <v>6048.0</v>
       </c>
       <c r="B3" t="n">
-        <v>599.2130338918471</v>
+        <v>600.5092280896276</v>
       </c>
       <c r="C3" t="n">
-        <v>7.56804299549793E10</v>
+        <v>2.5172000453206966E10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1108549387655657E7</v>
+        <v>5162079.9749060245</v>
       </c>
       <c r="E3" t="n">
-        <v>10599.21303389186</v>
+        <v>10600.509228089632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16146.0</v>
+        <v>11097.0</v>
       </c>
       <c r="B4" t="n">
-        <v>601.0782491529733</v>
+        <v>598.8524357910047</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0094717311382373E11</v>
+        <v>7.567468128348412E10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.908610431872802E7</v>
+        <v>2.110743451841907E7</v>
       </c>
       <c r="E4" t="n">
-        <v>10601.078249152986</v>
+        <v>10598.852435790981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21195.0</v>
+        <v>16146.0</v>
       </c>
       <c r="B5" t="n">
-        <v>599.794710980014</v>
+        <v>599.7985339347581</v>
       </c>
       <c r="C5" t="n">
-        <v>1.1608497230380225E11</v>
+        <v>1.0092917903596396E11</v>
       </c>
       <c r="D5" t="n">
-        <v>3.386494214793797E7</v>
+        <v>2.9080949272943888E7</v>
       </c>
       <c r="E5" t="n">
-        <v>10599.794710980044</v>
+        <v>10599.798533934769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26244.0</v>
+        <v>21195.0</v>
       </c>
       <c r="B6" t="n">
-        <v>599.6888326307429</v>
+        <v>600.1415706445182</v>
       </c>
       <c r="C6" t="n">
-        <v>1.2618390005667722E11</v>
+        <v>1.1609241751708015E11</v>
       </c>
       <c r="D6" t="n">
-        <v>3.705347048133112E7</v>
+        <v>3.386658636851287E7</v>
       </c>
       <c r="E6" t="n">
-        <v>10599.688832630707</v>
+        <v>10600.141570644522</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31293.0</v>
+        <v>26244.0</v>
       </c>
       <c r="B7" t="n">
-        <v>599.3232527159776</v>
+        <v>599.6053122123086</v>
       </c>
       <c r="C7" t="n">
-        <v>1.3339726278337498E11</v>
+        <v>1.2617800873481955E11</v>
       </c>
       <c r="D7" t="n">
-        <v>3.933022101353238E7</v>
+        <v>3.705192270074354E7</v>
       </c>
       <c r="E7" t="n">
-        <v>10599.323252716016</v>
+        <v>10599.605312212312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>36342.0</v>
+        <v>31293.0</v>
       </c>
       <c r="B8" t="n">
-        <v>599.795351198281</v>
+        <v>599.9136878070194</v>
       </c>
       <c r="C8" t="n">
-        <v>1.388039955626585E11</v>
+        <v>1.3339965470760826E11</v>
       </c>
       <c r="D8" t="n">
-        <v>4.103867047870454E7</v>
+        <v>3.933274240687393E7</v>
       </c>
       <c r="E8" t="n">
-        <v>10599.795351198305</v>
+        <v>10599.913687807077</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>41391.0</v>
+        <v>36342.0</v>
       </c>
       <c r="B9" t="n">
-        <v>599.5232770815765</v>
+        <v>599.9396290604498</v>
       </c>
       <c r="C9" t="n">
-        <v>1.4300311868195175E11</v>
+        <v>1.3880783074043375E11</v>
       </c>
       <c r="D9" t="n">
-        <v>4.236514237001063E7</v>
+        <v>4.1041477095451914E7</v>
       </c>
       <c r="E9" t="n">
-        <v>10599.523277081553</v>
+        <v>10599.939629060435</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>46440.0</v>
+        <v>41391.0</v>
       </c>
       <c r="B10" t="n">
-        <v>599.8495901222461</v>
+        <v>600.2819156056822</v>
       </c>
       <c r="C10" t="n">
-        <v>1.463726561587368E11</v>
+        <v>1.4301977483090033E11</v>
       </c>
       <c r="D10" t="n">
-        <v>4.3428799478543766E7</v>
+        <v>4.23695905645811E7</v>
       </c>
       <c r="E10" t="n">
-        <v>10599.849590122165</v>
+        <v>10600.281915605688</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>51489.0</v>
+        <v>46440.0</v>
       </c>
       <c r="B11" t="n">
-        <v>599.3973819614047</v>
+        <v>599.2165699536266</v>
       </c>
       <c r="C11" t="n">
-        <v>1.4913164185598624E11</v>
+        <v>1.4637348471579318E11</v>
       </c>
       <c r="D11" t="n">
-        <v>4.4298909342171684E7</v>
+        <v>4.342747136757375E7</v>
       </c>
       <c r="E11" t="n">
-        <v>10599.397381961435</v>
+        <v>10599.216569953634</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>56538.0</v>
+        <v>51489.0</v>
       </c>
       <c r="B12" t="n">
-        <v>599.6804463745199</v>
+        <v>599.9365304446103</v>
       </c>
       <c r="C12" t="n">
-        <v>1.5143287681744858E11</v>
+        <v>1.491488280844245E11</v>
       </c>
       <c r="D12" t="n">
-        <v>4.50244039646753E7</v>
+        <v>4.430375429697067E7</v>
       </c>
       <c r="E12" t="n">
-        <v>10599.680446374536</v>
+        <v>10599.93653044465</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>61587.0</v>
+        <v>56538.0</v>
       </c>
       <c r="B13" t="n">
-        <v>600.4830122316351</v>
+        <v>599.7088310172169</v>
       </c>
       <c r="C13" t="n">
-        <v>1.533825050007352E11</v>
+        <v>1.5143343642716202E11</v>
       </c>
       <c r="D13" t="n">
-        <v>4.564253567791869E7</v>
+        <v>4.502597916936356E7</v>
       </c>
       <c r="E13" t="n">
-        <v>10600.483012231613</v>
+        <v>10599.70883101717</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>66636.0</v>
+        <v>61587.0</v>
       </c>
       <c r="B14" t="n">
-        <v>600.2119728190346</v>
+        <v>600.5445156270141</v>
       </c>
       <c r="C14" t="n">
-        <v>1.5504529654788004E11</v>
+        <v>1.5338349622807675E11</v>
       </c>
       <c r="D14" t="n">
-        <v>4.616677144965524E7</v>
+        <v>4.5643746037897006E7</v>
       </c>
       <c r="E14" t="n">
-        <v>10600.211972818997</v>
+        <v>10600.54451562708</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>71685.0</v>
+        <v>66636.0</v>
       </c>
       <c r="B15" t="n">
-        <v>599.4441780376628</v>
+        <v>599.5434564180412</v>
       </c>
       <c r="C15" t="n">
-        <v>1.564794775867393E11</v>
+        <v>1.550403341669342E11</v>
       </c>
       <c r="D15" t="n">
-        <v>4.6619788542952E7</v>
+        <v>4.6164372414136365E7</v>
       </c>
       <c r="E15" t="n">
-        <v>10599.444178037666</v>
+        <v>10599.543456417941</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>76734.0</v>
+        <v>71685.0</v>
       </c>
       <c r="B16" t="n">
-        <v>599.9975627701767</v>
+        <v>599.6235827692913</v>
       </c>
       <c r="C16" t="n">
-        <v>1.5774900639590286E11</v>
+        <v>1.5647404206922083E11</v>
       </c>
       <c r="D16" t="n">
-        <v>4.7019073963894136E7</v>
+        <v>4.661908315254478E7</v>
       </c>
       <c r="E16" t="n">
-        <v>10599.997562770173</v>
+        <v>10599.623582769327</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>81783.0</v>
+        <v>76734.0</v>
       </c>
       <c r="B17" t="n">
-        <v>599.1915033285171</v>
+        <v>599.9346563246093</v>
       </c>
       <c r="C17" t="n">
-        <v>1.5885637124461707E11</v>
+        <v>1.577417623466597E11</v>
       </c>
       <c r="D17" t="n">
-        <v>4.736892922766049E7</v>
+        <v>4.7017912243497506E7</v>
       </c>
       <c r="E17" t="n">
-        <v>10599.191503328519</v>
+        <v>10599.934656324633</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>86832.0</v>
+        <v>81783.0</v>
       </c>
       <c r="B18" t="n">
-        <v>600.2603796662673</v>
+        <v>600.6834726732376</v>
       </c>
       <c r="C18" t="n">
-        <v>1.59860546307815E11</v>
+        <v>1.5888205190441833E11</v>
       </c>
       <c r="D18" t="n">
-        <v>4.768682624707006E7</v>
+        <v>4.737627722625757E7</v>
       </c>
       <c r="E18" t="n">
-        <v>10600.260379666295</v>
+        <v>10600.683472673232</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>91881.0</v>
+        <v>86832.0</v>
       </c>
       <c r="B19" t="n">
-        <v>599.7513847281832</v>
+        <v>599.9340873930611</v>
       </c>
       <c r="C19" t="n">
-        <v>1.6074359461068665E11</v>
+        <v>1.598627619700264E11</v>
       </c>
       <c r="D19" t="n">
-        <v>4.796443991178322E7</v>
+        <v>4.768593624911536E7</v>
       </c>
       <c r="E19" t="n">
-        <v>10599.75138472817</v>
+        <v>10599.934087393078</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>96930.0</v>
+        <v>91881.0</v>
       </c>
       <c r="B20" t="n">
-        <v>600.5687983414807</v>
+        <v>600.4167005182018</v>
       </c>
       <c r="C20" t="n">
-        <v>1.615507140371523E11</v>
+        <v>1.6075531938482227E11</v>
       </c>
       <c r="D20" t="n">
-        <v>4.8219042873732716E7</v>
+        <v>4.796799328815318E7</v>
       </c>
       <c r="E20" t="n">
-        <v>10600.568798341468</v>
+        <v>10600.416700518219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>101979.0</v>
+        <v>96930.0</v>
       </c>
       <c r="B21" t="n">
-        <v>600.3992951671319</v>
+        <v>600.3386423654667</v>
       </c>
       <c r="C21" t="n">
-        <v>1.6226653167476944E11</v>
+        <v>1.6154075582714645E11</v>
       </c>
       <c r="D21" t="n">
-        <v>4.8446373233969405E7</v>
+        <v>4.8216709874870524E7</v>
       </c>
       <c r="E21" t="n">
-        <v>10600.399295167093</v>
+        <v>10600.33864236545</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107028.0</v>
+        <v>101979.0</v>
       </c>
       <c r="B22" t="n">
-        <v>600.5534682864817</v>
+        <v>600.6591855915451</v>
       </c>
       <c r="C22" t="n">
-        <v>1.629233990669815E11</v>
+        <v>1.6226298094790887E11</v>
       </c>
       <c r="D22" t="n">
-        <v>4.865269588554202E7</v>
+        <v>4.844413111730844E7</v>
       </c>
       <c r="E22" t="n">
-        <v>10600.5534682865</v>
+        <v>10600.659185591538</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112077.0</v>
+        <v>107028.0</v>
       </c>
       <c r="B23" t="n">
-        <v>600.5769096293039</v>
+        <v>599.875970959019</v>
       </c>
       <c r="C23" t="n">
-        <v>1.635289875025979E11</v>
+        <v>1.6291839407478378E11</v>
       </c>
       <c r="D23" t="n">
-        <v>4.884340971167406E7</v>
+        <v>4.8650819956802145E7</v>
       </c>
       <c r="E23" t="n">
-        <v>10600.576909629264</v>
+        <v>10599.875970959005</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>117126.0</v>
+        <v>112077.0</v>
       </c>
       <c r="B24" t="n">
-        <v>599.7113527329561</v>
+        <v>600.4029808174146</v>
       </c>
       <c r="C24" t="n">
-        <v>1.6403790309980222E11</v>
+        <v>1.6352481636156415E11</v>
       </c>
       <c r="D24" t="n">
-        <v>4.9008417076394275E7</v>
+        <v>4.8841723693916515E7</v>
       </c>
       <c r="E24" t="n">
-        <v>10599.711352732938</v>
+        <v>10600.402980817404</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>122175.0</v>
+        <v>117126.0</v>
       </c>
       <c r="B25" t="n">
-        <v>599.8982131796485</v>
+        <v>600.8162730397587</v>
       </c>
       <c r="C25" t="n">
-        <v>1.64570573727229E11</v>
+        <v>1.6406999500075522E11</v>
       </c>
       <c r="D25" t="n">
-        <v>4.917258803833823E7</v>
+        <v>4.901550069119948E7</v>
       </c>
       <c r="E25" t="n">
-        <v>10599.898213179611</v>
+        <v>10600.816273039763</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>127224.0</v>
+        <v>122175.0</v>
       </c>
       <c r="B26" t="n">
-        <v>600.8801694396411</v>
+        <v>600.236201662216</v>
       </c>
       <c r="C26" t="n">
-        <v>1.6503936904588577E11</v>
+        <v>1.6456810391548425E11</v>
       </c>
       <c r="D26" t="n">
-        <v>4.932182992926772E7</v>
+        <v>4.9173685776746504E7</v>
       </c>
       <c r="E26" t="n">
-        <v>10600.880169439659</v>
+        <v>10600.236201662201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>132273.0</v>
+        <v>127224.0</v>
       </c>
       <c r="B27" t="n">
-        <v>600.400534233617</v>
+        <v>599.6309011315474</v>
       </c>
       <c r="C27" t="n">
-        <v>1.6546980136303888E11</v>
+        <v>1.6502157595631763E11</v>
       </c>
       <c r="D27" t="n">
-        <v>4.9456407064797655E7</v>
+        <v>4.9317917355878465E7</v>
       </c>
       <c r="E27" t="n">
-        <v>10600.400534233531</v>
+        <v>10599.630901131566</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>137322.0</v>
+        <v>132273.0</v>
       </c>
       <c r="B28" t="n">
-        <v>599.7376353683106</v>
+        <v>600.5811353531659</v>
       </c>
       <c r="C28" t="n">
-        <v>1.658552941240698E11</v>
+        <v>1.6547249370217166E11</v>
       </c>
       <c r="D28" t="n">
-        <v>4.958031305488118E7</v>
+        <v>4.945886701761801E7</v>
       </c>
       <c r="E28" t="n">
-        <v>10599.737635368347</v>
+        <v>10600.581135353139</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>142371.0</v>
+        <v>137322.0</v>
       </c>
       <c r="B29" t="n">
-        <v>599.223711429532</v>
+        <v>599.5618331483641</v>
       </c>
       <c r="C29" t="n">
-        <v>1.6621570445608237E11</v>
+        <v>1.658539394834028E11</v>
       </c>
       <c r="D29" t="n">
-        <v>4.969412866356885E7</v>
+        <v>4.957915194977445E7</v>
       </c>
       <c r="E29" t="n">
-        <v>10599.223711429478</v>
+        <v>10599.561833148346</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>142371.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>598.72851280831</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.6621320868874664E11</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.969219436449408E7</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10598.728512808295</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>147420.0</v>
       </c>
-      <c r="B30" t="n">
-        <v>599.5533152590466</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.665791844637446E11</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4.9808362470087856E7</v>
-      </c>
-      <c r="E30" t="n">
-        <v>10599.553315259069</v>
+      <c r="B31" t="n">
+        <v>600.3643630915003</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.6658462028716013E11</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.981126503220047E7</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10600.364363091508</v>
       </c>
     </row>
   </sheetData>

--- a/updateOct11/cpu/round_robin200.xlsx
+++ b/updateOct11/cpu/round_robin200.xlsx
@@ -96,512 +96,512 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>999.0</v>
+        <v>99.0</v>
       </c>
       <c r="B2" t="n">
-        <v>599.6472613440606</v>
+        <v>600.0652608881426</v>
       </c>
       <c r="C2" t="n">
-        <v>4.174439792368561E10</v>
+        <v>5.830178579747233E8</v>
       </c>
       <c r="D2" t="n">
-        <v>9005707.941788252</v>
+        <v>117354.3013491844</v>
       </c>
       <c r="E2" t="n">
-        <v>10599.647261344075</v>
+        <v>1206.0652608878343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6048.0</v>
+        <v>5148.0</v>
       </c>
       <c r="B3" t="n">
-        <v>600.5092280896276</v>
+        <v>600.6952793721468</v>
       </c>
       <c r="C3" t="n">
-        <v>2.5172000453206966E10</v>
+        <v>4.4359472858910286E8</v>
       </c>
       <c r="D3" t="n">
-        <v>5162079.9749060245</v>
+        <v>88761.41578616571</v>
       </c>
       <c r="E3" t="n">
-        <v>10600.509228089632</v>
+        <v>1806.6952793713717</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11097.0</v>
+        <v>10197.0</v>
       </c>
       <c r="B4" t="n">
-        <v>598.8524357910047</v>
+        <v>599.80445441261</v>
       </c>
       <c r="C4" t="n">
-        <v>7.567468128348412E10</v>
+        <v>1.3728363014986067E10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.110743451841907E7</v>
+        <v>4078626.209533501</v>
       </c>
       <c r="E4" t="n">
-        <v>10598.852435790981</v>
+        <v>2405.8044544113263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16146.0</v>
+        <v>15246.0</v>
       </c>
       <c r="B5" t="n">
-        <v>599.7985339347581</v>
+        <v>599.5418247920735</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0092917903596396E11</v>
+        <v>2.5361699956151226E10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.9080949272943888E7</v>
+        <v>7571742.772391258</v>
       </c>
       <c r="E5" t="n">
-        <v>10599.798533934769</v>
+        <v>3005.541824790268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21195.0</v>
+        <v>20295.0</v>
       </c>
       <c r="B6" t="n">
-        <v>600.1415706445182</v>
+        <v>600.1350160793911</v>
       </c>
       <c r="C6" t="n">
-        <v>1.1609241751708015E11</v>
+        <v>3.634505845654646E10</v>
       </c>
       <c r="D6" t="n">
-        <v>3.386658636851287E7</v>
+        <v>1.0868401223173268E7</v>
       </c>
       <c r="E6" t="n">
-        <v>10600.141570644522</v>
+        <v>3606.135016077064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>26244.0</v>
+        <v>25344.0</v>
       </c>
       <c r="B7" t="n">
-        <v>599.6053122123086</v>
+        <v>598.7055398472703</v>
       </c>
       <c r="C7" t="n">
-        <v>1.2617800873481955E11</v>
+        <v>4.700225597912908E10</v>
       </c>
       <c r="D7" t="n">
-        <v>3.705192270074354E7</v>
+        <v>1.4065855314072514E7</v>
       </c>
       <c r="E7" t="n">
-        <v>10599.605312212312</v>
+        <v>4204.705539845095</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31293.0</v>
+        <v>30393.0</v>
       </c>
       <c r="B8" t="n">
-        <v>599.9136878070194</v>
+        <v>599.5559627779041</v>
       </c>
       <c r="C8" t="n">
-        <v>1.3339965470760826E11</v>
+        <v>5.747799945725365E10</v>
       </c>
       <c r="D8" t="n">
-        <v>3.933274240687393E7</v>
+        <v>1.7207904488108765E7</v>
       </c>
       <c r="E8" t="n">
-        <v>10599.913687807077</v>
+        <v>4805.555962779189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>36342.0</v>
+        <v>35442.0</v>
       </c>
       <c r="B9" t="n">
-        <v>599.9396290604498</v>
+        <v>600.3149339394379</v>
       </c>
       <c r="C9" t="n">
-        <v>1.3880783074043375E11</v>
+        <v>6.783397157814027E10</v>
       </c>
       <c r="D9" t="n">
-        <v>4.1041477095451914E7</v>
+        <v>2.031577959313609E7</v>
       </c>
       <c r="E9" t="n">
-        <v>10599.939629060435</v>
+        <v>5406.314933944289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>41391.0</v>
+        <v>40491.0</v>
       </c>
       <c r="B10" t="n">
-        <v>600.2819156056822</v>
+        <v>600.7337522650741</v>
       </c>
       <c r="C10" t="n">
-        <v>1.4301977483090033E11</v>
+        <v>7.812562789765572E10</v>
       </c>
       <c r="D10" t="n">
-        <v>4.23695905645811E7</v>
+        <v>2.340004915706407E7</v>
       </c>
       <c r="E10" t="n">
-        <v>10600.281915605688</v>
+        <v>6006.733752273604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>46440.0</v>
+        <v>45540.0</v>
       </c>
       <c r="B11" t="n">
-        <v>599.2165699536266</v>
+        <v>601.0055847436566</v>
       </c>
       <c r="C11" t="n">
-        <v>1.4637348471579318E11</v>
+        <v>8.83426969840267E10</v>
       </c>
       <c r="D11" t="n">
-        <v>4.342747136757375E7</v>
+        <v>2.646744275678684E7</v>
       </c>
       <c r="E11" t="n">
-        <v>10599.216569953634</v>
+        <v>6607.005584755917</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>51489.0</v>
+        <v>50589.0</v>
       </c>
       <c r="B12" t="n">
-        <v>599.9365304446103</v>
+        <v>600.0041040861327</v>
       </c>
       <c r="C12" t="n">
-        <v>1.491488280844245E11</v>
+        <v>9.850509793601735E10</v>
       </c>
       <c r="D12" t="n">
-        <v>4.430375429697067E7</v>
+        <v>2.9517460612074636E7</v>
       </c>
       <c r="E12" t="n">
-        <v>10599.93653044465</v>
+        <v>7206.004104102185</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>56538.0</v>
+        <v>55638.0</v>
       </c>
       <c r="B13" t="n">
-        <v>599.7088310172169</v>
+        <v>599.6057995355509</v>
       </c>
       <c r="C13" t="n">
-        <v>1.5143343642716202E11</v>
+        <v>1.0865244251121083E11</v>
       </c>
       <c r="D13" t="n">
-        <v>4.502597916936356E7</v>
+        <v>3.2558333020670354E7</v>
       </c>
       <c r="E13" t="n">
-        <v>10599.70883101717</v>
+        <v>7805.605799555407</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>61587.0</v>
+        <v>60687.0</v>
       </c>
       <c r="B14" t="n">
-        <v>600.5445156270141</v>
+        <v>598.8607516553421</v>
       </c>
       <c r="C14" t="n">
-        <v>1.5338349622807675E11</v>
+        <v>1.1875917425689987E11</v>
       </c>
       <c r="D14" t="n">
-        <v>4.5643746037897006E7</v>
+        <v>3.559288096811674E7</v>
       </c>
       <c r="E14" t="n">
-        <v>10600.54451562708</v>
+        <v>8404.860751676044</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>66636.0</v>
+        <v>65736.0</v>
       </c>
       <c r="B15" t="n">
-        <v>599.5434564180412</v>
+        <v>600.7034331867904</v>
       </c>
       <c r="C15" t="n">
-        <v>1.550403341669342E11</v>
+        <v>1.288963614631997E11</v>
       </c>
       <c r="D15" t="n">
-        <v>4.6164372414136365E7</v>
+        <v>3.8635090199479796E7</v>
       </c>
       <c r="E15" t="n">
-        <v>10599.543456417941</v>
+        <v>9006.70343320277</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>71685.0</v>
+        <v>70785.0</v>
       </c>
       <c r="B16" t="n">
-        <v>599.6235827692913</v>
+        <v>599.942214056184</v>
       </c>
       <c r="C16" t="n">
-        <v>1.5647404206922083E11</v>
+        <v>1.3897644339969513E11</v>
       </c>
       <c r="D16" t="n">
-        <v>4.661908315254478E7</v>
+        <v>4.16579150389202E7</v>
       </c>
       <c r="E16" t="n">
-        <v>10599.623582769327</v>
+        <v>9605.942214067545</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>76734.0</v>
+        <v>75834.0</v>
       </c>
       <c r="B17" t="n">
-        <v>599.9346563246093</v>
+        <v>599.6454242263169</v>
       </c>
       <c r="C17" t="n">
-        <v>1.577417623466597E11</v>
+        <v>1.4905772065826907E11</v>
       </c>
       <c r="D17" t="n">
-        <v>4.7017912243497506E7</v>
+        <v>4.4681901341159455E7</v>
       </c>
       <c r="E17" t="n">
-        <v>10599.934656324633</v>
+        <v>10205.64542423293</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>81783.0</v>
+        <v>80883.0</v>
       </c>
       <c r="B18" t="n">
-        <v>600.6834726732376</v>
+        <v>600.846133802974</v>
       </c>
       <c r="C18" t="n">
-        <v>1.5888205190441833E11</v>
+        <v>1.591505197110038E11</v>
       </c>
       <c r="D18" t="n">
-        <v>4.737627722625757E7</v>
+        <v>4.770895510131971E7</v>
       </c>
       <c r="E18" t="n">
-        <v>10600.683472673232</v>
+        <v>10806.8461338048</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>86832.0</v>
+        <v>85932.0</v>
       </c>
       <c r="B19" t="n">
-        <v>599.9340873930611</v>
+        <v>599.1580724506541</v>
       </c>
       <c r="C19" t="n">
-        <v>1.598627619700264E11</v>
+        <v>1.6918441558378174E11</v>
       </c>
       <c r="D19" t="n">
-        <v>4.768593624911536E7</v>
+        <v>5.071921926227313E7</v>
       </c>
       <c r="E19" t="n">
-        <v>10599.934087393078</v>
+        <v>11405.158072447623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>91881.0</v>
+        <v>90981.0</v>
       </c>
       <c r="B20" t="n">
-        <v>600.4167005182018</v>
+        <v>600.5010047095185</v>
       </c>
       <c r="C20" t="n">
-        <v>1.6075531938482227E11</v>
+        <v>1.7927302190938052E11</v>
       </c>
       <c r="D20" t="n">
-        <v>4.796799328815318E7</v>
+        <v>5.3744011055407576E7</v>
       </c>
       <c r="E20" t="n">
-        <v>10600.416700518219</v>
+        <v>12006.50100470158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>96930.0</v>
+        <v>96030.0</v>
       </c>
       <c r="B21" t="n">
-        <v>600.3386423654667</v>
+        <v>599.0627416674183</v>
       </c>
       <c r="C21" t="n">
-        <v>1.6154075582714645E11</v>
+        <v>1.8930168284064996E11</v>
       </c>
       <c r="D21" t="n">
-        <v>4.8216709874870524E7</v>
+        <v>5.6754135770848505E7</v>
       </c>
       <c r="E21" t="n">
-        <v>10600.33864236545</v>
+        <v>12605.06274165467</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>101979.0</v>
+        <v>101079.0</v>
       </c>
       <c r="B22" t="n">
-        <v>600.6591855915451</v>
+        <v>600.7952934445273</v>
       </c>
       <c r="C22" t="n">
-        <v>1.6226298094790887E11</v>
+        <v>1.9937361872293405E11</v>
       </c>
       <c r="D22" t="n">
-        <v>4.844413111730844E7</v>
+        <v>5.977566764149743E7</v>
       </c>
       <c r="E22" t="n">
-        <v>10600.659185591538</v>
+        <v>13206.795293426894</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>107028.0</v>
+        <v>106128.0</v>
       </c>
       <c r="B23" t="n">
-        <v>599.875970959019</v>
+        <v>600.6367534726522</v>
       </c>
       <c r="C23" t="n">
-        <v>1.6291839407478378E11</v>
+        <v>2.09404041623851E11</v>
       </c>
       <c r="D23" t="n">
-        <v>4.8650819956802145E7</v>
+        <v>6.278408586919422E7</v>
       </c>
       <c r="E23" t="n">
-        <v>10599.875970959005</v>
+        <v>13806.636753450059</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112077.0</v>
+        <v>111177.0</v>
       </c>
       <c r="B24" t="n">
-        <v>600.4029808174146</v>
+        <v>601.0281536276641</v>
       </c>
       <c r="C24" t="n">
-        <v>1.6352481636156415E11</v>
+        <v>2.194575749198841E11</v>
       </c>
       <c r="D24" t="n">
-        <v>4.8841723693916515E7</v>
+        <v>6.579859534928951E7</v>
       </c>
       <c r="E24" t="n">
-        <v>10600.402980817404</v>
+        <v>14407.028153600262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>117126.0</v>
+        <v>116226.0</v>
       </c>
       <c r="B25" t="n">
-        <v>600.8162730397587</v>
+        <v>599.8424317561097</v>
       </c>
       <c r="C25" t="n">
-        <v>1.6406999500075522E11</v>
+        <v>2.2946337127518942E11</v>
       </c>
       <c r="D25" t="n">
-        <v>4.901550069119948E7</v>
+        <v>6.880176164976402E7</v>
       </c>
       <c r="E25" t="n">
-        <v>10600.816273039763</v>
+        <v>15005.842431723688</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>122175.0</v>
+        <v>121275.0</v>
       </c>
       <c r="B26" t="n">
-        <v>600.236201662216</v>
+        <v>601.0324870683486</v>
       </c>
       <c r="C26" t="n">
-        <v>1.6456810391548425E11</v>
+        <v>2.395332272882953E11</v>
       </c>
       <c r="D26" t="n">
-        <v>4.9173685776746504E7</v>
+        <v>7.182077242951734E7</v>
       </c>
       <c r="E26" t="n">
-        <v>10600.236201662201</v>
+        <v>15607.032487030992</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>127224.0</v>
+        <v>126324.0</v>
       </c>
       <c r="B27" t="n">
-        <v>599.6309011315474</v>
+        <v>600.3077888599463</v>
       </c>
       <c r="C27" t="n">
-        <v>1.6502157595631763E11</v>
+        <v>2.4953972824498907E11</v>
       </c>
       <c r="D27" t="n">
-        <v>4.9317917355878465E7</v>
+        <v>7.482376651168096E7</v>
       </c>
       <c r="E27" t="n">
-        <v>10599.630901131566</v>
+        <v>16206.307788817629</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>132273.0</v>
+        <v>131373.0</v>
       </c>
       <c r="B28" t="n">
-        <v>600.5811353531659</v>
+        <v>599.9372170605619</v>
       </c>
       <c r="C28" t="n">
-        <v>1.6547249370217166E11</v>
+        <v>2.5955963679081094E11</v>
       </c>
       <c r="D28" t="n">
-        <v>4.945886701761801E7</v>
+        <v>7.78306513089226E7</v>
       </c>
       <c r="E28" t="n">
-        <v>10600.581135353139</v>
+        <v>16805.93721702558</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>137322.0</v>
+        <v>136422.0</v>
       </c>
       <c r="B29" t="n">
-        <v>599.5618331483641</v>
+        <v>600.2336746771521</v>
       </c>
       <c r="C29" t="n">
-        <v>1.658539394834028E11</v>
+        <v>2.6959261196122537E11</v>
       </c>
       <c r="D29" t="n">
-        <v>4.957915194977445E7</v>
+        <v>8.083942023262672E7</v>
       </c>
       <c r="E29" t="n">
-        <v>10599.561833148346</v>
+        <v>17406.233674654824</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>142371.0</v>
+        <v>141471.0</v>
       </c>
       <c r="B30" t="n">
-        <v>598.72851280831</v>
+        <v>599.7891603848306</v>
       </c>
       <c r="C30" t="n">
-        <v>1.6621320868874664E11</v>
+        <v>2.796194382067032E11</v>
       </c>
       <c r="D30" t="n">
-        <v>4.969219436449408E7</v>
+        <v>8.384569321045086E7</v>
       </c>
       <c r="E30" t="n">
-        <v>10598.728512808295</v>
+        <v>18005.789160375058</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>147420.0</v>
+        <v>146520.0</v>
       </c>
       <c r="B31" t="n">
-        <v>600.3643630915003</v>
+        <v>600.235816586224</v>
       </c>
       <c r="C31" t="n">
-        <v>1.6658462028716013E11</v>
+        <v>2.896561568117445E11</v>
       </c>
       <c r="D31" t="n">
-        <v>4.981126503220047E7</v>
+        <v>8.68560899255712E7</v>
       </c>
       <c r="E31" t="n">
-        <v>10600.364363091508</v>
+        <v>18606.235816589167</v>
       </c>
     </row>
   </sheetData>
